--- a/biology/Microbiologie/Pseudomonade/Pseudomonade.xlsx
+++ b/biology/Microbiologie/Pseudomonade/Pseudomonade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries Gram - aérobies strictes ou Pseudomonades de culture « facile » forment un groupe de bactéries très souvent oxydase +.
 Ils sont à l'heure actuelle mieux classés grâce à de nombreuses études génétiques ADN-ADN ou ARNr-ADN ce qui a conduit à l'invention de nouveaux genres et familles. Il est toutefois bien délicat de définir une famille des Pseudomonades (Pseudomonadaceae) : la situation reste fort confuse vu la grande diversité du groupe et des études ultérieures permettront très certainement de différencier plusieurs familles. Le genre Pseudomonas (et quelques bactéries proches), qui représente les bacilles Gram négatif aérobies stricts les plus fréquemment rencontrés dans les laboratoires de bactériologie, a subi, du fait de ces remaniements, un éclatement qui a conduit à l'invention de nouveaux genres (voire de nouvelles familles), sur des critères plus génétiques.
@@ -512,7 +524,9 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Pseudomonas et bactéries proches sont définis par 7 critères, comme le sont les entérobactéries (avec les mêmes limites dans la définition de ces critères) : 
 Bacilles à Gram négatif
